--- a/ver2/tree.xlsx
+++ b/ver2/tree.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="9585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="9585" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -573,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -890,9 +890,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,14 +957,14 @@
         <v>37</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1879</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;"-"&amp;B2&amp;"."&amp;C2</f>
-        <v>Ульянов_Илья_Николаевич-Бланк_Мария_Александровна-1.png</v>
+        <v>Ульянов_Илья_Николаевич-Бланк_Мария_Александровна-1879.png</v>
       </c>
       <c r="E2" t="s">
         <v>44</v>

--- a/ver2/tree.xlsx
+++ b/ver2/tree.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="9585" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27300" windowHeight="9585"/>
   </bookViews>
   <sheets>
     <sheet name="person" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>label</t>
   </si>
@@ -151,9 +151,6 @@
     <t>extension</t>
   </si>
   <si>
-    <t>png</t>
-  </si>
-  <si>
     <t>inFamily</t>
   </si>
   <si>
@@ -218,6 +215,18 @@
   </si>
   <si>
     <t>deathFull_</t>
+  </si>
+  <si>
+    <t>10 (22).04 1870</t>
+  </si>
+  <si>
+    <t>21.01.1924</t>
+  </si>
+  <si>
+    <t>https://ru.wikipedia.org/wiki/%D0%9B%D0%B5%D0%BD%D0%B8%D0%BD,_%D0%92%D0%BB%D0%B0%D0%B4%D0%B8%D0%BC%D0%B8%D1%80_%D0%98%D0%BB%D1%8C%D0%B8%D1%87 ; https://www.wikidata.org/wiki/Q1394</t>
+  </si>
+  <si>
+    <t>jpg</t>
   </si>
 </sst>
 </file>
@@ -573,9 +582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +595,8 @@
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" customWidth="1"/>
-    <col min="7" max="8" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
     <col min="9" max="10" width="15.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
@@ -599,13 +609,13 @@
         <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -617,16 +627,16 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>34</v>
@@ -662,13 +672,16 @@
         <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -842,22 +855,22 @@
         <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -872,7 +885,7 @@
         <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -890,9 +903,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -916,7 +929,7 @@
         <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>39</v>
@@ -925,31 +938,31 @@
         <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -960,26 +973,26 @@
         <v>1879</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D2" t="str">
         <f>A2&amp;"-"&amp;B2&amp;"."&amp;C2</f>
-        <v>Ульянов_Илья_Николаевич-Бланк_Мария_Александровна-1879.png</v>
+        <v>Ульянов_Илья_Николаевич-Бланк_Мария_Александровна-1879.jpg</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2">
         <v>1879</v>
       </c>
       <c r="K2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
